--- a/2022/Symphony/AUGUST/06.08.2022/MC Bank Statement Aug-2022.xlsx
+++ b/2022/Symphony/AUGUST/06.08.2022/MC Bank Statement Aug-2022.xlsx
@@ -3157,6 +3157,15 @@
     <xf numFmtId="0" fontId="3" fillId="37" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3204,15 +3213,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -9238,11 +9238,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9257,6 +9252,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9270,8 +9270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10051,14 +10051,14 @@
         <v>706060</v>
       </c>
       <c r="C8" s="52">
-        <v>595930</v>
+        <v>655430</v>
       </c>
       <c r="D8" s="49">
         <v>3430</v>
       </c>
       <c r="E8" s="49">
         <f t="shared" si="0"/>
-        <v>599360</v>
+        <v>658860</v>
       </c>
       <c r="F8" s="227"/>
       <c r="G8" s="237"/>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="C33" s="252">
         <f>SUM(C5:C32)</f>
-        <v>2842336</v>
+        <v>2901836</v>
       </c>
       <c r="D33" s="251">
         <f>SUM(D5:D32)</f>
@@ -12627,11 +12627,11 @@
       </c>
       <c r="E33" s="251">
         <f>SUM(E5:E32)</f>
-        <v>2853720</v>
+        <v>2913220</v>
       </c>
       <c r="F33" s="251">
         <f>B33-E33</f>
-        <v>965760</v>
+        <v>906260</v>
       </c>
       <c r="G33" s="253"/>
       <c r="H33" s="138"/>
@@ -13999,7 +13999,7 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="296">
-        <v>459500</v>
+        <v>400000</v>
       </c>
       <c r="E46" s="297" t="s">
         <v>197</v>
@@ -22174,7 +22174,7 @@
       <c r="C119" s="376"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
-        <v>3060890</v>
+        <v>3001390</v>
       </c>
       <c r="E119" s="204"/>
       <c r="F119" s="137"/>
@@ -22381,7 +22381,7 @@
       <c r="C121" s="365"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
-        <v>3060890</v>
+        <v>3001390</v>
       </c>
       <c r="E121" s="204"/>
       <c r="F121" s="137"/>
@@ -33614,8 +33614,8 @@
   </sheetPr>
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A1:E35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33634,35 +33634,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="383" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="381"/>
-      <c r="C1" s="381"/>
-      <c r="D1" s="381"/>
-      <c r="E1" s="382"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="385"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="386" t="s">
+      <c r="A2" s="389" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="387"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="388"/>
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="391"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="383" t="s">
+      <c r="A3" s="386" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="385"/>
+      <c r="B3" s="387"/>
+      <c r="C3" s="387"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="388"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33685,15 +33685,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="389" t="s">
+      <c r="A4" s="392" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="390"/>
+      <c r="B4" s="393"/>
       <c r="C4" s="258"/>
-      <c r="D4" s="391" t="s">
+      <c r="D4" s="394" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="392"/>
+      <c r="E4" s="395"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -33793,7 +33793,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="240">
-        <v>378953.18999999948</v>
+        <v>438453.18999999948</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="256"/>
@@ -33855,7 +33855,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="240">
-        <v>3060890</v>
+        <v>3001390</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="111"/>
@@ -34159,13 +34159,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" thickBot="1">
-      <c r="A19" s="377" t="s">
+      <c r="A19" s="380" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="378"/>
-      <c r="C19" s="378"/>
-      <c r="D19" s="378"/>
-      <c r="E19" s="379"/>
+      <c r="B19" s="381"/>
+      <c r="C19" s="381"/>
+      <c r="D19" s="381"/>
+      <c r="E19" s="382"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34674,13 +34674,13 @@
       <c r="Y34" s="7"/>
     </row>
     <row r="35" spans="1:25" ht="18.75" thickBot="1">
-      <c r="A35" s="393" t="s">
+      <c r="A35" s="377" t="s">
         <v>203</v>
       </c>
-      <c r="B35" s="394"/>
-      <c r="C35" s="394"/>
-      <c r="D35" s="394"/>
-      <c r="E35" s="395"/>
+      <c r="B35" s="378"/>
+      <c r="C35" s="378"/>
+      <c r="D35" s="378"/>
+      <c r="E35" s="379"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
